--- a/Tasa de Xenofobia/Tasa Xenofobia/Tasa Xenofobia Regiones-2023.xlsx
+++ b/Tasa de Xenofobia/Tasa Xenofobia/Tasa Xenofobia Regiones-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\BX-HUB-Indicadores\Tasa de Xenofobia\Tasa Xenofobia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44D38FE-7501-4656-83B6-EF8D6F33EB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF13F131-7D44-4C34-A7CD-23642BA82E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colombia" sheetId="1" r:id="rId1"/>
@@ -519,105 +519,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="58">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -766,6 +679,20 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -796,9 +723,45 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -806,6 +769,42 @@
         <top style="thin">
           <color auto="1"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1002,7 +1001,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE47E770-38A5-446E-BECF-8EF338BBB86A}" name="Tabla1" displayName="Tabla1" ref="A1:F1172" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="56" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BE47E770-38A5-446E-BECF-8EF338BBB86A}" name="xeno_region_colombia" displayName="xeno_region_colombia" ref="A1:F1172" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" tableBorderDxfId="55">
   <autoFilter ref="A1:F1172" xr:uid="{BE47E770-38A5-446E-BECF-8EF338BBB86A}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A4306D24-8490-4E15-9D0C-1F5277970E0A}" name="Pais"/>
@@ -1017,7 +1016,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C3A7429F-F017-48CE-A17E-492EA15E6CBB}" name="Tabla3" displayName="Tabla3" ref="A1:F717" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C3A7429F-F017-48CE-A17E-492EA15E6CBB}" name="Tabla3" displayName="Tabla3" ref="A1:F717" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="A1:F717" xr:uid="{C3A7429F-F017-48CE-A17E-492EA15E6CBB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{35958B5F-2538-444F-BFAD-ABA134419939}" name="Pais"/>
@@ -1032,7 +1031,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9CD8E42-013A-4E81-866A-97932F091451}" name="Tabla5" displayName="Tabla5" ref="A1:F677" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A9CD8E42-013A-4E81-866A-97932F091451}" name="Tabla5" displayName="Tabla5" ref="A1:F677" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
   <autoFilter ref="A1:F677" xr:uid="{A9CD8E42-013A-4E81-866A-97932F091451}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{54FBF396-53E0-46A9-BA32-35416511D7E1}" name="Pais"/>
@@ -1052,55 +1051,55 @@
   <tableColumns count="51">
     <tableColumn id="31" xr3:uid="{32E9F3F2-984C-49C6-8A42-57A3F119D865}" uniqueName="31" name="Pais" queryTableFieldId="31"/>
     <tableColumn id="32" xr3:uid="{F385FFC0-0D6E-4ADE-BA3C-8E99CC1A6B70}" uniqueName="32" name="Region" queryTableFieldId="32"/>
-    <tableColumn id="33" xr3:uid="{86A6DC8B-E9C5-43C3-8C92-A14BA8AD2752}" uniqueName="33" name="2022-12-26" queryTableFieldId="33" dataDxfId="54"/>
-    <tableColumn id="34" xr3:uid="{472FBDC0-1ED5-4B31-B20B-26CB6199B360}" uniqueName="34" name="2023-01-02" queryTableFieldId="34" dataDxfId="53"/>
-    <tableColumn id="35" xr3:uid="{6632D37A-7553-4302-AF57-6C3DBAB9E6B6}" uniqueName="35" name="2023-01-09" queryTableFieldId="35" dataDxfId="52"/>
-    <tableColumn id="36" xr3:uid="{E9208157-1C0F-4A68-8AC8-9C35F1FBCBFF}" uniqueName="36" name="2023-01-16" queryTableFieldId="36" dataDxfId="51"/>
-    <tableColumn id="37" xr3:uid="{BF48A3E4-0429-4D25-A2C5-6172473587BC}" uniqueName="37" name="2023-01-23" queryTableFieldId="37" dataDxfId="50"/>
-    <tableColumn id="38" xr3:uid="{7F727140-95C8-43C0-80F2-6FDE8ADEE40E}" uniqueName="38" name="2023-01-30" queryTableFieldId="38" dataDxfId="49"/>
-    <tableColumn id="39" xr3:uid="{DAA299B5-0970-4578-B681-0BDA3FDAF83E}" uniqueName="39" name="2023-02-06" queryTableFieldId="39" dataDxfId="48"/>
-    <tableColumn id="40" xr3:uid="{EF52A714-7B76-4C7D-B373-4212CE3CFCB6}" uniqueName="40" name="2023-02-13" queryTableFieldId="40" dataDxfId="47"/>
-    <tableColumn id="41" xr3:uid="{335B9C7F-2D69-4113-8BD2-BB603BE2DC2C}" uniqueName="41" name="2023-02-20" queryTableFieldId="41" dataDxfId="46"/>
-    <tableColumn id="42" xr3:uid="{2D1803BA-CE80-4294-8A98-97E1F0F69CD2}" uniqueName="42" name="2023-02-27" queryTableFieldId="42" dataDxfId="45"/>
-    <tableColumn id="43" xr3:uid="{AC2041A6-AD16-4BDC-9B15-042D09F5286C}" uniqueName="43" name="2023-03-06" queryTableFieldId="43" dataDxfId="44"/>
-    <tableColumn id="44" xr3:uid="{4827C0AD-2C30-4BE3-A320-6D75E5C89879}" uniqueName="44" name="2023-03-13" queryTableFieldId="44" dataDxfId="43"/>
-    <tableColumn id="45" xr3:uid="{C2C159BD-F3F4-4624-AB96-C3E9A168A607}" uniqueName="45" name="2023-03-20" queryTableFieldId="45" dataDxfId="42"/>
-    <tableColumn id="46" xr3:uid="{07C78C73-C2FB-4E1E-AA8D-5C6376D73859}" uniqueName="46" name="2023-03-27" queryTableFieldId="46" dataDxfId="41"/>
-    <tableColumn id="47" xr3:uid="{36FDCF53-FE0B-440D-87A1-2D011C053594}" uniqueName="47" name="2023-04-03" queryTableFieldId="47" dataDxfId="40"/>
-    <tableColumn id="48" xr3:uid="{39D4D09E-8217-4FBC-9B61-687FBF5EFE52}" uniqueName="48" name="2023-04-10" queryTableFieldId="48" dataDxfId="39"/>
-    <tableColumn id="49" xr3:uid="{4818B9B8-52B6-479F-BFBD-33B68E526088}" uniqueName="49" name="2023-04-17" queryTableFieldId="49" dataDxfId="38"/>
-    <tableColumn id="50" xr3:uid="{04E94502-15D6-4633-B797-E3FF9934E9A2}" uniqueName="50" name="2023-04-24" queryTableFieldId="50" dataDxfId="37"/>
-    <tableColumn id="51" xr3:uid="{7385E946-EBD6-4690-AEC8-ABEEEFF7D5FA}" uniqueName="51" name="2023-05-01" queryTableFieldId="51" dataDxfId="36"/>
-    <tableColumn id="52" xr3:uid="{4A7ECFA8-F960-4E35-9D41-5B3D9FC3C296}" uniqueName="52" name="2023-05-08" queryTableFieldId="52" dataDxfId="35"/>
-    <tableColumn id="53" xr3:uid="{E32F2AA0-DFFE-4F7C-B952-E25D9F25C8ED}" uniqueName="53" name="2023-05-15" queryTableFieldId="53" dataDxfId="34"/>
-    <tableColumn id="54" xr3:uid="{8A7784FE-92FA-4BD2-8DA8-E47A02A8654A}" uniqueName="54" name="2023-05-22" queryTableFieldId="54" dataDxfId="33"/>
-    <tableColumn id="55" xr3:uid="{9A8B0BDA-6B52-4B77-8712-660665817D2B}" uniqueName="55" name="2023-05-29" queryTableFieldId="55" dataDxfId="32"/>
-    <tableColumn id="56" xr3:uid="{C6558318-D370-4783-BDE2-4767A825C62E}" uniqueName="56" name="2023-06-05" queryTableFieldId="56" dataDxfId="31"/>
-    <tableColumn id="57" xr3:uid="{6F019C4D-7D0B-46FC-9B14-78FF5A061ABA}" uniqueName="57" name="2023-06-12" queryTableFieldId="57" dataDxfId="30"/>
-    <tableColumn id="58" xr3:uid="{97461977-71BE-48DC-981F-F8FB25B6C99C}" uniqueName="58" name="2023-06-19" queryTableFieldId="58" dataDxfId="29"/>
-    <tableColumn id="59" xr3:uid="{FDC34FAA-53A9-4580-B280-5BD17E9B14B9}" uniqueName="59" name="2023-06-26" queryTableFieldId="59" dataDxfId="28"/>
-    <tableColumn id="60" xr3:uid="{AC31E469-DD6A-4D31-B10C-10462A6F064F}" uniqueName="60" name="2023-07-03" queryTableFieldId="60" dataDxfId="27"/>
-    <tableColumn id="61" xr3:uid="{2391ADA6-56C9-4CA7-BB27-13D23779E5A7}" uniqueName="61" name="2023-07-10" queryTableFieldId="61" dataDxfId="26"/>
-    <tableColumn id="62" xr3:uid="{1823121B-DEAB-4F15-B03A-E9DB979B58C6}" uniqueName="62" name="2023-07-17" queryTableFieldId="62" dataDxfId="25"/>
-    <tableColumn id="63" xr3:uid="{64D22586-D244-4F31-93FA-EE9E0A354969}" uniqueName="63" name="2023-07-24" queryTableFieldId="63" dataDxfId="24"/>
-    <tableColumn id="64" xr3:uid="{7FCA3744-B74B-4371-A17B-8F138EDABD64}" uniqueName="64" name="2023-07-31" queryTableFieldId="64" dataDxfId="23"/>
-    <tableColumn id="65" xr3:uid="{CD1F9668-1DA8-428B-8EAD-592C7B3B7087}" uniqueName="65" name="2023-08-07" queryTableFieldId="65" dataDxfId="22"/>
-    <tableColumn id="66" xr3:uid="{5945DE32-765E-4B4C-A680-B75BE9868F7E}" uniqueName="66" name="2023-08-14" queryTableFieldId="66" dataDxfId="21"/>
-    <tableColumn id="67" xr3:uid="{699C8782-F7D2-4DF8-8912-8D3D2C1831E7}" uniqueName="67" name="2023-08-21" queryTableFieldId="67" dataDxfId="20"/>
-    <tableColumn id="68" xr3:uid="{4DA60A91-5CBE-4C11-A744-F23B42F926C6}" uniqueName="68" name="2023-08-28" queryTableFieldId="68" dataDxfId="19"/>
-    <tableColumn id="69" xr3:uid="{3C77734C-50F8-4615-87AE-E6F4C78FA57C}" uniqueName="69" name="2023-09-04" queryTableFieldId="69" dataDxfId="18"/>
-    <tableColumn id="70" xr3:uid="{13555B51-3604-49EB-A76D-66D46C54DDB5}" uniqueName="70" name="2023-09-11" queryTableFieldId="70" dataDxfId="17"/>
-    <tableColumn id="71" xr3:uid="{279D0D5F-5B80-4C82-B4B3-57011EA8231E}" uniqueName="71" name="2023-09-18" queryTableFieldId="71" dataDxfId="16"/>
-    <tableColumn id="72" xr3:uid="{6AFD2103-6BBC-49AD-869A-C718B90F63BD}" uniqueName="72" name="2023-09-25" queryTableFieldId="72" dataDxfId="15"/>
-    <tableColumn id="73" xr3:uid="{2C377077-0492-4614-AAFF-5B4F82430490}" uniqueName="73" name="2023-10-02" queryTableFieldId="73" dataDxfId="14"/>
-    <tableColumn id="74" xr3:uid="{4888D4F1-FDFF-48B5-AF8D-3ED33A200B01}" uniqueName="74" name="2023-10-09" queryTableFieldId="74" dataDxfId="13"/>
-    <tableColumn id="75" xr3:uid="{F2DAB204-8A50-4814-B45B-69F812EF19C0}" uniqueName="75" name="2023-10-16" queryTableFieldId="75" dataDxfId="12"/>
-    <tableColumn id="76" xr3:uid="{D83247AB-C47A-447B-8F89-DFF5627CE4B1}" uniqueName="76" name="2023-10-23" queryTableFieldId="76" dataDxfId="11"/>
-    <tableColumn id="77" xr3:uid="{E27F012E-9974-4F84-9761-DC17DA1429BB}" uniqueName="77" name="2023-10-30" queryTableFieldId="77" dataDxfId="10"/>
-    <tableColumn id="78" xr3:uid="{6CD383E1-895B-46F7-B939-D85B9E4B26CE}" uniqueName="78" name="2023-11-06" queryTableFieldId="78" dataDxfId="9"/>
-    <tableColumn id="79" xr3:uid="{E5B2A508-8200-4934-9737-DF23CFC58DFE}" uniqueName="79" name="2023-11-13" queryTableFieldId="79" dataDxfId="8"/>
-    <tableColumn id="80" xr3:uid="{6E8ED3D1-41C1-40A7-BCAE-41E4CAF3BDC9}" uniqueName="80" name="2023-11-20" queryTableFieldId="80" dataDxfId="7"/>
-    <tableColumn id="81" xr3:uid="{6BE9B37C-D2CD-4C08-BC1D-E87BB297FC44}" uniqueName="81" name="2023-11-27" queryTableFieldId="81" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{86A6DC8B-E9C5-43C3-8C92-A14BA8AD2752}" uniqueName="33" name="2022-12-26" queryTableFieldId="33" dataDxfId="48"/>
+    <tableColumn id="34" xr3:uid="{472FBDC0-1ED5-4B31-B20B-26CB6199B360}" uniqueName="34" name="2023-01-02" queryTableFieldId="34" dataDxfId="47"/>
+    <tableColumn id="35" xr3:uid="{6632D37A-7553-4302-AF57-6C3DBAB9E6B6}" uniqueName="35" name="2023-01-09" queryTableFieldId="35" dataDxfId="46"/>
+    <tableColumn id="36" xr3:uid="{E9208157-1C0F-4A68-8AC8-9C35F1FBCBFF}" uniqueName="36" name="2023-01-16" queryTableFieldId="36" dataDxfId="45"/>
+    <tableColumn id="37" xr3:uid="{BF48A3E4-0429-4D25-A2C5-6172473587BC}" uniqueName="37" name="2023-01-23" queryTableFieldId="37" dataDxfId="44"/>
+    <tableColumn id="38" xr3:uid="{7F727140-95C8-43C0-80F2-6FDE8ADEE40E}" uniqueName="38" name="2023-01-30" queryTableFieldId="38" dataDxfId="43"/>
+    <tableColumn id="39" xr3:uid="{DAA299B5-0970-4578-B681-0BDA3FDAF83E}" uniqueName="39" name="2023-02-06" queryTableFieldId="39" dataDxfId="42"/>
+    <tableColumn id="40" xr3:uid="{EF52A714-7B76-4C7D-B373-4212CE3CFCB6}" uniqueName="40" name="2023-02-13" queryTableFieldId="40" dataDxfId="41"/>
+    <tableColumn id="41" xr3:uid="{335B9C7F-2D69-4113-8BD2-BB603BE2DC2C}" uniqueName="41" name="2023-02-20" queryTableFieldId="41" dataDxfId="40"/>
+    <tableColumn id="42" xr3:uid="{2D1803BA-CE80-4294-8A98-97E1F0F69CD2}" uniqueName="42" name="2023-02-27" queryTableFieldId="42" dataDxfId="39"/>
+    <tableColumn id="43" xr3:uid="{AC2041A6-AD16-4BDC-9B15-042D09F5286C}" uniqueName="43" name="2023-03-06" queryTableFieldId="43" dataDxfId="38"/>
+    <tableColumn id="44" xr3:uid="{4827C0AD-2C30-4BE3-A320-6D75E5C89879}" uniqueName="44" name="2023-03-13" queryTableFieldId="44" dataDxfId="37"/>
+    <tableColumn id="45" xr3:uid="{C2C159BD-F3F4-4624-AB96-C3E9A168A607}" uniqueName="45" name="2023-03-20" queryTableFieldId="45" dataDxfId="36"/>
+    <tableColumn id="46" xr3:uid="{07C78C73-C2FB-4E1E-AA8D-5C6376D73859}" uniqueName="46" name="2023-03-27" queryTableFieldId="46" dataDxfId="35"/>
+    <tableColumn id="47" xr3:uid="{36FDCF53-FE0B-440D-87A1-2D011C053594}" uniqueName="47" name="2023-04-03" queryTableFieldId="47" dataDxfId="34"/>
+    <tableColumn id="48" xr3:uid="{39D4D09E-8217-4FBC-9B61-687FBF5EFE52}" uniqueName="48" name="2023-04-10" queryTableFieldId="48" dataDxfId="33"/>
+    <tableColumn id="49" xr3:uid="{4818B9B8-52B6-479F-BFBD-33B68E526088}" uniqueName="49" name="2023-04-17" queryTableFieldId="49" dataDxfId="32"/>
+    <tableColumn id="50" xr3:uid="{04E94502-15D6-4633-B797-E3FF9934E9A2}" uniqueName="50" name="2023-04-24" queryTableFieldId="50" dataDxfId="31"/>
+    <tableColumn id="51" xr3:uid="{7385E946-EBD6-4690-AEC8-ABEEEFF7D5FA}" uniqueName="51" name="2023-05-01" queryTableFieldId="51" dataDxfId="30"/>
+    <tableColumn id="52" xr3:uid="{4A7ECFA8-F960-4E35-9D41-5B3D9FC3C296}" uniqueName="52" name="2023-05-08" queryTableFieldId="52" dataDxfId="29"/>
+    <tableColumn id="53" xr3:uid="{E32F2AA0-DFFE-4F7C-B952-E25D9F25C8ED}" uniqueName="53" name="2023-05-15" queryTableFieldId="53" dataDxfId="28"/>
+    <tableColumn id="54" xr3:uid="{8A7784FE-92FA-4BD2-8DA8-E47A02A8654A}" uniqueName="54" name="2023-05-22" queryTableFieldId="54" dataDxfId="27"/>
+    <tableColumn id="55" xr3:uid="{9A8B0BDA-6B52-4B77-8712-660665817D2B}" uniqueName="55" name="2023-05-29" queryTableFieldId="55" dataDxfId="26"/>
+    <tableColumn id="56" xr3:uid="{C6558318-D370-4783-BDE2-4767A825C62E}" uniqueName="56" name="2023-06-05" queryTableFieldId="56" dataDxfId="25"/>
+    <tableColumn id="57" xr3:uid="{6F019C4D-7D0B-46FC-9B14-78FF5A061ABA}" uniqueName="57" name="2023-06-12" queryTableFieldId="57" dataDxfId="24"/>
+    <tableColumn id="58" xr3:uid="{97461977-71BE-48DC-981F-F8FB25B6C99C}" uniqueName="58" name="2023-06-19" queryTableFieldId="58" dataDxfId="23"/>
+    <tableColumn id="59" xr3:uid="{FDC34FAA-53A9-4580-B280-5BD17E9B14B9}" uniqueName="59" name="2023-06-26" queryTableFieldId="59" dataDxfId="22"/>
+    <tableColumn id="60" xr3:uid="{AC31E469-DD6A-4D31-B10C-10462A6F064F}" uniqueName="60" name="2023-07-03" queryTableFieldId="60" dataDxfId="21"/>
+    <tableColumn id="61" xr3:uid="{2391ADA6-56C9-4CA7-BB27-13D23779E5A7}" uniqueName="61" name="2023-07-10" queryTableFieldId="61" dataDxfId="20"/>
+    <tableColumn id="62" xr3:uid="{1823121B-DEAB-4F15-B03A-E9DB979B58C6}" uniqueName="62" name="2023-07-17" queryTableFieldId="62" dataDxfId="19"/>
+    <tableColumn id="63" xr3:uid="{64D22586-D244-4F31-93FA-EE9E0A354969}" uniqueName="63" name="2023-07-24" queryTableFieldId="63" dataDxfId="18"/>
+    <tableColumn id="64" xr3:uid="{7FCA3744-B74B-4371-A17B-8F138EDABD64}" uniqueName="64" name="2023-07-31" queryTableFieldId="64" dataDxfId="17"/>
+    <tableColumn id="65" xr3:uid="{CD1F9668-1DA8-428B-8EAD-592C7B3B7087}" uniqueName="65" name="2023-08-07" queryTableFieldId="65" dataDxfId="16"/>
+    <tableColumn id="66" xr3:uid="{5945DE32-765E-4B4C-A680-B75BE9868F7E}" uniqueName="66" name="2023-08-14" queryTableFieldId="66" dataDxfId="15"/>
+    <tableColumn id="67" xr3:uid="{699C8782-F7D2-4DF8-8912-8D3D2C1831E7}" uniqueName="67" name="2023-08-21" queryTableFieldId="67" dataDxfId="14"/>
+    <tableColumn id="68" xr3:uid="{4DA60A91-5CBE-4C11-A744-F23B42F926C6}" uniqueName="68" name="2023-08-28" queryTableFieldId="68" dataDxfId="13"/>
+    <tableColumn id="69" xr3:uid="{3C77734C-50F8-4615-87AE-E6F4C78FA57C}" uniqueName="69" name="2023-09-04" queryTableFieldId="69" dataDxfId="12"/>
+    <tableColumn id="70" xr3:uid="{13555B51-3604-49EB-A76D-66D46C54DDB5}" uniqueName="70" name="2023-09-11" queryTableFieldId="70" dataDxfId="11"/>
+    <tableColumn id="71" xr3:uid="{279D0D5F-5B80-4C82-B4B3-57011EA8231E}" uniqueName="71" name="2023-09-18" queryTableFieldId="71" dataDxfId="10"/>
+    <tableColumn id="72" xr3:uid="{6AFD2103-6BBC-49AD-869A-C718B90F63BD}" uniqueName="72" name="2023-09-25" queryTableFieldId="72" dataDxfId="9"/>
+    <tableColumn id="73" xr3:uid="{2C377077-0492-4614-AAFF-5B4F82430490}" uniqueName="73" name="2023-10-02" queryTableFieldId="73" dataDxfId="8"/>
+    <tableColumn id="74" xr3:uid="{4888D4F1-FDFF-48B5-AF8D-3ED33A200B01}" uniqueName="74" name="2023-10-09" queryTableFieldId="74" dataDxfId="7"/>
+    <tableColumn id="75" xr3:uid="{F2DAB204-8A50-4814-B45B-69F812EF19C0}" uniqueName="75" name="2023-10-16" queryTableFieldId="75" dataDxfId="6"/>
+    <tableColumn id="76" xr3:uid="{D83247AB-C47A-447B-8F89-DFF5627CE4B1}" uniqueName="76" name="2023-10-23" queryTableFieldId="76" dataDxfId="5"/>
+    <tableColumn id="77" xr3:uid="{E27F012E-9974-4F84-9761-DC17DA1429BB}" uniqueName="77" name="2023-10-30" queryTableFieldId="77" dataDxfId="4"/>
+    <tableColumn id="78" xr3:uid="{6CD383E1-895B-46F7-B939-D85B9E4B26CE}" uniqueName="78" name="2023-11-06" queryTableFieldId="78" dataDxfId="3"/>
+    <tableColumn id="79" xr3:uid="{E5B2A508-8200-4934-9737-DF23CFC58DFE}" uniqueName="79" name="2023-11-13" queryTableFieldId="79" dataDxfId="2"/>
+    <tableColumn id="80" xr3:uid="{6E8ED3D1-41C1-40A7-BCAE-41E4CAF3BDC9}" uniqueName="80" name="2023-11-20" queryTableFieldId="80" dataDxfId="1"/>
+    <tableColumn id="81" xr3:uid="{6BE9B37C-D2CD-4C08-BC1D-E87BB297FC44}" uniqueName="81" name="2023-11-27" queryTableFieldId="81" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1515,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA1172"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,7 +1526,7 @@
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="8" max="53" width="8.88671875" style="3"/>
+    <col min="8" max="53" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.3">
@@ -55038,151 +55037,151 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>0.23</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>0.24</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>0.18</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>0.22</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>0.11</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>0.16</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>0.1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>0.16</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>0.1</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>0.1</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>0.18</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>0.11</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <v>0.09</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>0.1</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2">
         <v>0.11</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2">
         <v>0.12</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2">
         <v>0.13</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2">
         <v>0.11</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2">
         <v>0.13</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2">
         <v>0.1</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2">
         <v>0.13</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2">
         <v>0.1</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2">
         <v>0.26</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2">
         <v>0.13</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2">
         <v>0.1</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2">
         <v>0.15</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2">
         <v>0.18</v>
       </c>
-      <c r="AI2" s="2">
+      <c r="AI2">
         <v>0.13</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2">
         <v>0.22</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AL2">
         <v>0.12</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AM2">
         <v>0.23</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2">
         <v>0.19</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AP2">
         <v>0.18</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AQ2">
         <v>0.16</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AR2">
         <v>0.16</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AS2">
         <v>0.09</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AT2">
         <v>0.13</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AU2">
         <v>0.17</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="AV2">
         <v>0.18</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="AW2">
         <v>0.12</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="AX2">
         <v>0.15</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="AY2">
         <v>0.17</v>
       </c>
     </row>
@@ -55193,151 +55192,151 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0.03</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>0.05</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>0.05</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>0.1</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>0.06</v>
       </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>0.09</v>
       </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>0.09</v>
       </c>
-      <c r="Z3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
         <v>0.25</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3">
         <v>0.11</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3">
         <v>0.1</v>
       </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2">
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
         <v>0.09</v>
       </c>
-      <c r="AF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="2">
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>0.05</v>
       </c>
-      <c r="AI3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="2">
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
         <v>0.25</v>
       </c>
-      <c r="AL3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="2">
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
         <v>0.18</v>
       </c>
-      <c r="AN3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="2">
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AP3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="2">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>0.17</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AT3">
         <v>0.4</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AU3">
         <v>0.08</v>
       </c>
-      <c r="AV3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="2">
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
         <v>0</v>
       </c>
     </row>
@@ -55348,151 +55347,151 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>0.26</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>0.36</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>0.31</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>0.17</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>0.11</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>0.21</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>0.33</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>0.17</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>0.13</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4">
         <v>0.27</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
         <v>0.16</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
         <v>0.13</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4">
         <v>0.15</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4">
         <v>0.26</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4">
         <v>0.1</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4">
         <v>0.12</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4">
         <v>0.13</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4">
         <v>0.1</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4">
         <v>0.13</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4">
         <v>0.15</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4">
         <v>0.15</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4">
         <v>0.12</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4">
         <v>0.12</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4">
         <v>0.15</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4">
         <v>0.25</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4">
         <v>0.11</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4">
         <v>0.13</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4">
         <v>0.08</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4">
         <v>0.21</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH4">
         <v>0.17</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ4">
         <v>0.3</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4">
         <v>0.25</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4">
         <v>0.15</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4">
         <v>0.25</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN4">
         <v>0.24</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AP4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4">
         <v>0.19</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AR4">
         <v>0.24</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AT4">
         <v>0.18</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AU4">
         <v>0.16</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AV4">
         <v>0.21</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AW4">
         <v>0.16</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AX4">
         <v>0.19</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AY4">
         <v>0.18</v>
       </c>
     </row>
@@ -55503,151 +55502,151 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0.24</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>0.17</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>0.11</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>0.08</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>0.08</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>0.13</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>0.08</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>0.09</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>0.13</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>0.1</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>0.12</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>0.08</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>0.09</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5">
         <v>0.08</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5">
         <v>0.09</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5">
         <v>0.09</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5">
         <v>0.08</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5">
         <v>0.1</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5">
         <v>0.21</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5">
         <v>0.1</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5">
         <v>0.06</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5">
         <v>0.1</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AH5">
         <v>0.09</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AI5">
         <v>0.11</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AJ5">
         <v>0.2</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AK5">
         <v>0.12</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AL5">
         <v>0.08</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AM5">
         <v>0.18</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AN5">
         <v>0.11</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AO5">
         <v>0.24</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AP5">
         <v>0.18</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AQ5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AR5">
         <v>0.11</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AS5">
         <v>0.08</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AT5">
         <v>0.09</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AU5">
         <v>0.17</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="AV5">
         <v>0.19</v>
       </c>
-      <c r="AW5" s="2">
+      <c r="AW5">
         <v>0.1</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="AX5">
         <v>0.13</v>
       </c>
-      <c r="AY5" s="2">
+      <c r="AY5">
         <v>0.13</v>
       </c>
     </row>
@@ -55658,151 +55657,151 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0.13</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>0.05</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>0.1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>0.04</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>0.03</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>0.04</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>0.02</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>0.04</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>0.04</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>0.06</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>0.21</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <v>0.13</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <v>0.03</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6">
         <v>0.06</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6">
         <v>0.03</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6">
         <v>0.04</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6">
         <v>0.04</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6">
         <v>0.03</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6">
         <v>0.03</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6">
         <v>0.03</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6">
         <v>0.03</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6">
         <v>0.04</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6">
         <v>0.03</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6">
         <v>0.03</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6">
         <v>0.03</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6">
         <v>0.04</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6">
         <v>0.2</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>0.04</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6">
         <v>0.01</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6">
         <v>0.05</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AH6">
         <v>0.08</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AI6">
         <v>0.09</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AJ6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AK6">
         <v>0.03</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL6">
         <v>0.05</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM6">
         <v>0.13</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AN6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AO6">
         <v>0.16</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AP6">
         <v>0.22</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AQ6">
         <v>0.12</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AR6">
         <v>0.09</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AS6">
         <v>0.05</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AT6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AU6">
         <v>0.11</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="AV6">
         <v>0.12</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="AW6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="AX6">
         <v>0.12</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AY6">
         <v>0.11</v>
       </c>
     </row>
@@ -55813,151 +55812,151 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>0.13</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>0.05</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>0.15</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>0.04</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>0.09</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>0.02</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>0.15</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>0.06</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>0.03</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>0.12</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7">
         <v>0.13</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7">
         <v>0.01</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7">
         <v>0.03</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7">
         <v>0.05</v>
       </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>0.12</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7">
         <v>0.02</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7">
         <v>0.12</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7">
         <v>0.06</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7">
         <v>0.06</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7">
         <v>0.1</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7">
         <v>0.1</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7">
         <v>0.13</v>
       </c>
-      <c r="AB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <v>0.19</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7">
         <v>0.04</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7">
         <v>0.05</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7">
         <v>0.03</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AH7">
         <v>0.02</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AI7">
         <v>0.04</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AJ7">
         <v>0.19</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AK7">
         <v>0.02</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AL7">
         <v>0.04</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AM7">
         <v>0.1</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AN7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AO7">
         <v>0.11</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AP7">
         <v>0.06</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AQ7">
         <v>0.08</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AR7">
         <v>0.02</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AS7">
         <v>0.02</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="AT7">
         <v>0.08</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AU7">
         <v>0.06</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AV7">
         <v>0.13</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="AW7">
         <v>0.06</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="AX7">
         <v>0.08</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="AY7">
         <v>0.05</v>
       </c>
     </row>
@@ -55968,151 +55967,151 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>0.5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>0.1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>0.06</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>0.16</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>0.15</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>0.09</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>0.2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>0.08</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>0.05</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8">
         <v>0.12</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8">
         <v>0.09</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8">
         <v>0.02</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8">
         <v>0.08</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8">
         <v>0.05</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8">
         <v>0.05</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8">
         <v>0.04</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8">
         <v>0.05</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8">
         <v>0.09</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8">
         <v>0.09</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8">
         <v>0.06</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8">
         <v>0.1</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8">
         <v>0.03</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8">
         <v>0.08</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AH8">
         <v>0.06</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AI8">
         <v>0.13</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AJ8">
         <v>0.1</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AK8">
         <v>0.06</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AL8">
         <v>0.02</v>
       </c>
-      <c r="AM8" s="2">
+      <c r="AM8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AN8">
         <v>0.11</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="AO8">
         <v>0.23</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="AP8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="AQ8">
         <v>0.13</v>
       </c>
-      <c r="AR8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="2">
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>0.09</v>
       </c>
-      <c r="AT8" s="2">
+      <c r="AT8">
         <v>0.17</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="AU8">
         <v>0.16</v>
       </c>
-      <c r="AV8" s="2">
+      <c r="AV8">
         <v>0.15</v>
       </c>
-      <c r="AW8" s="2">
+      <c r="AW8">
         <v>0.03</v>
       </c>
-      <c r="AX8" s="2">
+      <c r="AX8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AY8" s="2">
+      <c r="AY8">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -56123,151 +56122,151 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0.12</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>0.25</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>0.09</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>0.08</v>
       </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>0.12</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AC9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2">
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2">
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AN9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="2">
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AQ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="2">
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
         <v>0.33</v>
       </c>
-      <c r="AV9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="2">
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
         <v>0</v>
       </c>
     </row>
@@ -56278,151 +56277,151 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.23</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>0.12</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>0.05</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0.15</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>0.13</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>0.17</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>0.05</v>
       </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>0.18</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10">
         <v>0.24</v>
       </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>0.12</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10">
         <v>0.21</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10">
         <v>0.04</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10">
         <v>0.18</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10">
         <v>0.08</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10">
         <v>0.08</v>
       </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>0.12</v>
       </c>
-      <c r="AA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <v>0.11</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AC10">
         <v>0.23</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10">
         <v>0.06</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AE10">
         <v>0.06</v>
       </c>
-      <c r="AF10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="2">
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
         <v>0.27</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AI10">
         <v>0.06</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AJ10">
         <v>0.13</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AK10">
         <v>0.12</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AL10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AM10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="2">
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>0.11</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="AO10">
         <v>0.21</v>
       </c>
-      <c r="AP10" s="2">
+      <c r="AP10">
         <v>0.09</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="AQ10">
         <v>0.08</v>
       </c>
-      <c r="AR10" s="2">
+      <c r="AR10">
         <v>0.04</v>
       </c>
-      <c r="AS10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="2">
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
         <v>0.08</v>
       </c>
-      <c r="AU10" s="2">
+      <c r="AU10">
         <v>0.08</v>
       </c>
-      <c r="AV10" s="2">
+      <c r="AV10">
         <v>0.09</v>
       </c>
-      <c r="AW10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="2">
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
         <v>0.08</v>
       </c>
-      <c r="AY10" s="2">
+      <c r="AY10">
         <v>0.06</v>
       </c>
     </row>
@@ -56433,151 +56432,151 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>0.5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>0.12</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>0.04</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>0.05</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>0.06</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>0.04</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>0.3</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>0.1</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>0.16</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11">
         <v>0.36</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11">
         <v>0.22</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11">
         <v>0.11</v>
       </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>0.11</v>
       </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>0.21</v>
       </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
         <v>0.09</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11">
         <v>0.08</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11">
         <v>0.25</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11">
         <v>0.04</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AC11">
         <v>0.27</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11">
         <v>0.1</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AE11">
         <v>0.16</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AF11">
         <v>0.06</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AG11">
         <v>0.3</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AH11">
         <v>0.4</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AI11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AJ11">
         <v>0.05</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AK11">
         <v>0.15</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AL11">
         <v>0.11</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AM11">
         <v>0.26</v>
       </c>
-      <c r="AN11" s="2">
+      <c r="AN11">
         <v>0.12</v>
       </c>
-      <c r="AO11" s="2">
+      <c r="AO11">
         <v>0.4</v>
       </c>
-      <c r="AP11" s="2">
+      <c r="AP11">
         <v>0.35</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AQ11">
         <v>0.24</v>
       </c>
-      <c r="AR11" s="2">
+      <c r="AR11">
         <v>0.2</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AS11">
         <v>0.11</v>
       </c>
-      <c r="AT11" s="2">
+      <c r="AT11">
         <v>0.2</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AU11">
         <v>0.21</v>
       </c>
-      <c r="AV11" s="2">
+      <c r="AV11">
         <v>0.17</v>
       </c>
-      <c r="AW11" s="2">
+      <c r="AW11">
         <v>0.11</v>
       </c>
-      <c r="AX11" s="2">
+      <c r="AX11">
         <v>0.26</v>
       </c>
-      <c r="AY11" s="2">
+      <c r="AY11">
         <v>0.27</v>
       </c>
     </row>
@@ -56588,151 +56587,151 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>0.25</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>0.12</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>0.11</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>0.18</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>0.11</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>0.17</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>0.08</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>0.12</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <v>0.09</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12">
         <v>0.05</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12">
         <v>0.15</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12">
         <v>0.06</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12">
         <v>0.09</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12">
         <v>0.08</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12">
         <v>0.13</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12">
         <v>0.05</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12">
         <v>0.09</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12">
         <v>0.17</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12">
         <v>0.05</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12">
         <v>0.02</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12">
         <v>0.08</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12">
         <v>0.08</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12">
         <v>0.15</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AB12">
         <v>0.1</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AC12">
         <v>0.19</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12">
         <v>0.01</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AE12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AF12">
         <v>0.06</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AG12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AH12">
         <v>0.06</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AI12">
         <v>0.1</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AJ12">
         <v>0.12</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AK12">
         <v>0.1</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AL12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AM12" s="2">
+      <c r="AM12">
         <v>0.19</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="AN12">
         <v>0.12</v>
       </c>
-      <c r="AO12" s="2">
+      <c r="AO12">
         <v>0.18</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="AP12">
         <v>0.15</v>
       </c>
-      <c r="AQ12" s="2">
+      <c r="AQ12">
         <v>0.22</v>
       </c>
-      <c r="AR12" s="2">
+      <c r="AR12">
         <v>0.16</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AS12">
         <v>0.13</v>
       </c>
-      <c r="AT12" s="2">
+      <c r="AT12">
         <v>0.04</v>
       </c>
-      <c r="AU12" s="2">
+      <c r="AU12">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AV12" s="2">
+      <c r="AV12">
         <v>0.13</v>
       </c>
-      <c r="AW12" s="2">
+      <c r="AW12">
         <v>0.08</v>
       </c>
-      <c r="AX12" s="2">
+      <c r="AX12">
         <v>0.17</v>
       </c>
-      <c r="AY12" s="2">
+      <c r="AY12">
         <v>0.19</v>
       </c>
     </row>
@@ -56743,151 +56742,151 @@
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>0.12</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>0.3</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>0.17</v>
       </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>0.27</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13">
         <v>0.18</v>
       </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>0.17</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13">
         <v>0.11</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13">
         <v>0.08</v>
       </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>0.12</v>
       </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
         <v>0.38</v>
       </c>
-      <c r="Y13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>1</v>
       </c>
-      <c r="AA13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="2">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
         <v>0.43</v>
       </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2">
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
         <v>0.13</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AF13">
         <v>0.18</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AG13">
         <v>0.12</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AH13">
         <v>0.25</v>
       </c>
-      <c r="AI13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="2">
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AL13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="2">
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
         <v>0.36</v>
       </c>
-      <c r="AN13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="2">
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
         <v>0.25</v>
       </c>
-      <c r="AP13" s="2">
+      <c r="AP13">
         <v>0.25</v>
       </c>
-      <c r="AQ13" s="2">
+      <c r="AQ13">
         <v>0.1</v>
       </c>
-      <c r="AR13" s="2">
+      <c r="AR13">
         <v>0.08</v>
       </c>
-      <c r="AS13" s="2">
+      <c r="AS13">
         <v>0.08</v>
       </c>
-      <c r="AT13" s="2">
+      <c r="AT13">
         <v>0.17</v>
       </c>
-      <c r="AU13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="2">
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AW13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="2">
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
         <v>0.11</v>
       </c>
     </row>
@@ -56898,151 +56897,151 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>0.5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>0.13</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>0.09</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>0.04</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>0.11</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14">
         <v>0.05</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14">
         <v>0.06</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14">
         <v>0.21</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14">
         <v>0.11</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14">
         <v>0.09</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14">
         <v>0.15</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14">
         <v>0.18</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14">
         <v>0.04</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14">
         <v>0.09</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14">
         <v>0.16</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14">
         <v>0.1</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14">
         <v>0.04</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14">
         <v>0.13</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14">
         <v>0.13</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14">
         <v>0.11</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="Z14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AA14">
         <v>0.05</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AB14">
         <v>0.15</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AC14">
         <v>0.23</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AD14">
         <v>0.12</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AE14">
         <v>0.12</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AF14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AG14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="AH14">
         <v>0.13</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AI14">
         <v>0.16</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AJ14">
         <v>0.16</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="AK14">
         <v>0.09</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AL14">
         <v>0.13</v>
       </c>
-      <c r="AM14" s="2">
+      <c r="AM14">
         <v>0.25</v>
       </c>
-      <c r="AN14" s="2">
+      <c r="AN14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AO14" s="2">
+      <c r="AO14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AP14" s="2">
+      <c r="AP14">
         <v>0.21</v>
       </c>
-      <c r="AQ14" s="2">
+      <c r="AQ14">
         <v>0.17</v>
       </c>
-      <c r="AR14" s="2">
+      <c r="AR14">
         <v>0.15</v>
       </c>
-      <c r="AS14" s="2">
+      <c r="AS14">
         <v>0.05</v>
       </c>
-      <c r="AT14" s="2">
+      <c r="AT14">
         <v>0.13</v>
       </c>
-      <c r="AU14" s="2">
+      <c r="AU14">
         <v>0.13</v>
       </c>
-      <c r="AV14" s="2">
+      <c r="AV14">
         <v>0.12</v>
       </c>
-      <c r="AW14" s="2">
+      <c r="AW14">
         <v>0.13</v>
       </c>
-      <c r="AX14" s="2">
+      <c r="AX14">
         <v>0.08</v>
       </c>
-      <c r="AY14" s="2">
+      <c r="AY14">
         <v>0.18</v>
       </c>
     </row>
@@ -57053,151 +57052,151 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>0.25</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>0.15</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>0.19</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>0.08</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <v>0.1</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>0.09</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
         <v>0.16</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15">
         <v>0.23</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15">
         <v>0.13</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15">
         <v>0.23</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15">
         <v>0.1</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15">
         <v>0.18</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15">
         <v>0.12</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15">
         <v>0.09</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15">
         <v>0.12</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15">
         <v>0.02</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15">
         <v>0.11</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15">
         <v>0.04</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Y15">
         <v>0.31</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="Z15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AA15">
         <v>0.09</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AB15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AC15">
         <v>0.27</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15">
         <v>0.06</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AE15">
         <v>0.06</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AF15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AG15">
         <v>0.09</v>
       </c>
-      <c r="AH15" s="2">
+      <c r="AH15">
         <v>0.08</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="AI15">
         <v>0.1</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AJ15">
         <v>0.09</v>
       </c>
-      <c r="AK15" s="2">
+      <c r="AK15">
         <v>0.18</v>
       </c>
-      <c r="AL15" s="2">
+      <c r="AL15">
         <v>0.12</v>
       </c>
-      <c r="AM15" s="2">
+      <c r="AM15">
         <v>0.2</v>
       </c>
-      <c r="AN15" s="2">
+      <c r="AN15">
         <v>0.11</v>
       </c>
-      <c r="AO15" s="2">
+      <c r="AO15">
         <v>0.15</v>
       </c>
-      <c r="AP15" s="2">
+      <c r="AP15">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AQ15" s="2">
+      <c r="AQ15">
         <v>0.13</v>
       </c>
-      <c r="AR15" s="2">
+      <c r="AR15">
         <v>0.09</v>
       </c>
-      <c r="AS15" s="2">
+      <c r="AS15">
         <v>0.05</v>
       </c>
-      <c r="AT15" s="2">
+      <c r="AT15">
         <v>0.15</v>
       </c>
-      <c r="AU15" s="2">
+      <c r="AU15">
         <v>0.13</v>
       </c>
-      <c r="AV15" s="2">
+      <c r="AV15">
         <v>0.15</v>
       </c>
-      <c r="AW15" s="2">
+      <c r="AW15">
         <v>0.1</v>
       </c>
-      <c r="AX15" s="2">
+      <c r="AX15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AY15" s="2">
+      <c r="AY15">
         <v>0.03</v>
       </c>
     </row>
@@ -57208,151 +57207,151 @@
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>0.33</v>
       </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="2">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>1</v>
       </c>
-      <c r="AK16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="2">
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
         <v>1</v>
       </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="2">
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
         <v>1</v>
       </c>
-      <c r="AR16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="2">
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
         <v>0</v>
       </c>
     </row>
@@ -57363,151 +57362,151 @@
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>0.16</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>0.17</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>0.03</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
         <v>0.13</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>0.17</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17">
         <v>0.04</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17">
         <v>0.05</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17">
         <v>0.21</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17">
         <v>0.11</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17">
         <v>0.16</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17">
         <v>0.09</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17">
         <v>0.1</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17">
         <v>0.09</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17">
         <v>0.03</v>
       </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>0.06</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17">
         <v>0.15</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17">
         <v>0.11</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17">
         <v>0.11</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="Z17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AA17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="2">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
         <v>0.09</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AC17">
         <v>0.16</v>
       </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="2">
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
         <v>0.12</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="AF17">
         <v>0.06</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AG17">
         <v>0.05</v>
       </c>
-      <c r="AH17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="2">
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>0.11</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AJ17">
         <v>0.36</v>
       </c>
-      <c r="AK17" s="2">
+      <c r="AK17">
         <v>0.24</v>
       </c>
-      <c r="AL17" s="2">
+      <c r="AL17">
         <v>0.11</v>
       </c>
-      <c r="AM17" s="2">
+      <c r="AM17">
         <v>0.11</v>
       </c>
-      <c r="AN17" s="2">
+      <c r="AN17">
         <v>0.08</v>
       </c>
-      <c r="AO17" s="2">
+      <c r="AO17">
         <v>0.21</v>
       </c>
-      <c r="AP17" s="2">
+      <c r="AP17">
         <v>0.1</v>
       </c>
-      <c r="AQ17" s="2">
+      <c r="AQ17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AR17" s="2">
+      <c r="AR17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS17" s="2">
+      <c r="AS17">
         <v>0.06</v>
       </c>
-      <c r="AT17" s="2">
+      <c r="AT17">
         <v>0.04</v>
       </c>
-      <c r="AU17" s="2">
+      <c r="AU17">
         <v>0.06</v>
       </c>
-      <c r="AV17" s="2">
+      <c r="AV17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AW17" s="2">
+      <c r="AW17">
         <v>0.1</v>
       </c>
-      <c r="AX17" s="2">
+      <c r="AX17">
         <v>0.15</v>
       </c>
-      <c r="AY17" s="2">
+      <c r="AY17">
         <v>0.13</v>
       </c>
     </row>
@@ -57518,151 +57517,151 @@
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>0.08</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>0.09</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>0.04</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>0.03</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18">
         <v>0.03</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>0.05</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18">
         <v>0.04</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18">
         <v>0.08</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18">
         <v>0.06</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18">
         <v>0.06</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18">
         <v>0.02</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18">
         <v>0.05</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18">
         <v>0.02</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18">
         <v>0.03</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18">
         <v>0.04</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18">
         <v>0.04</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18">
         <v>0.03</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18">
         <v>0.06</v>
       </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
         <v>0.05</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18">
         <v>0.12</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="Z18">
         <v>0.17</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AA18">
         <v>0.02</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AB18">
         <v>0.13</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AC18">
         <v>0.12</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18">
         <v>0.11</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AE18">
         <v>0.13</v>
       </c>
-      <c r="AF18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="2">
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>0.12</v>
       </c>
-      <c r="AH18" s="2">
+      <c r="AH18">
         <v>0.11</v>
       </c>
-      <c r="AI18" s="2">
+      <c r="AI18">
         <v>0.18</v>
       </c>
-      <c r="AJ18" s="2">
+      <c r="AJ18">
         <v>0.17</v>
       </c>
-      <c r="AK18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="2">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
         <v>0.03</v>
       </c>
-      <c r="AM18" s="2">
+      <c r="AM18">
         <v>0.06</v>
       </c>
-      <c r="AN18" s="2">
+      <c r="AN18">
         <v>0.06</v>
       </c>
-      <c r="AO18" s="2">
+      <c r="AO18">
         <v>0.23</v>
       </c>
-      <c r="AP18" s="2">
+      <c r="AP18">
         <v>0.1</v>
       </c>
-      <c r="AQ18" s="2">
+      <c r="AQ18">
         <v>0.09</v>
       </c>
-      <c r="AR18" s="2">
+      <c r="AR18">
         <v>0.22</v>
       </c>
-      <c r="AS18" s="2">
+      <c r="AS18">
         <v>0.05</v>
       </c>
-      <c r="AT18" s="2">
+      <c r="AT18">
         <v>0.04</v>
       </c>
-      <c r="AU18" s="2">
+      <c r="AU18">
         <v>0.12</v>
       </c>
-      <c r="AV18" s="2">
+      <c r="AV18">
         <v>0.11</v>
       </c>
-      <c r="AW18" s="2">
+      <c r="AW18">
         <v>0.09</v>
       </c>
-      <c r="AX18" s="2">
+      <c r="AX18">
         <v>0.08</v>
       </c>
-      <c r="AY18" s="2">
+      <c r="AY18">
         <v>0.19</v>
       </c>
     </row>
@@ -57673,151 +57672,151 @@
       <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>0.6</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>0.22</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>0.2</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19">
         <v>0.06</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>0.09</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19">
         <v>0.09</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <v>0.1</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19">
         <v>0.1</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19">
         <v>0.26</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19">
         <v>0.12</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19">
         <v>0.09</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19">
         <v>0.09</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19">
         <v>0.04</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19">
         <v>0.1</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19">
         <v>0.11</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19">
         <v>0.15</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19">
         <v>0.15</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19">
         <v>0.06</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19">
         <v>0.21</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y19">
         <v>0.05</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z19">
         <v>0.12</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA19">
         <v>0.02</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AB19">
         <v>0.11</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AC19">
         <v>0.16</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19">
         <v>0.05</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AE19">
         <v>0.13</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AF19">
         <v>0.05</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AG19">
         <v>0.16</v>
       </c>
-      <c r="AH19" s="2">
+      <c r="AH19">
         <v>0.02</v>
       </c>
-      <c r="AI19" s="2">
+      <c r="AI19">
         <v>0.03</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AJ19">
         <v>0.23</v>
       </c>
-      <c r="AK19" s="2">
+      <c r="AK19">
         <v>0.06</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AL19">
         <v>0.04</v>
       </c>
-      <c r="AM19" s="2">
+      <c r="AM19">
         <v>0.13</v>
       </c>
-      <c r="AN19" s="2">
+      <c r="AN19">
         <v>0.1</v>
       </c>
-      <c r="AO19" s="2">
+      <c r="AO19">
         <v>0.17</v>
       </c>
-      <c r="AP19" s="2">
+      <c r="AP19">
         <v>0.23</v>
       </c>
-      <c r="AQ19" s="2">
+      <c r="AQ19">
         <v>0.17</v>
       </c>
-      <c r="AR19" s="2">
+      <c r="AR19">
         <v>0.12</v>
       </c>
-      <c r="AS19" s="2">
+      <c r="AS19">
         <v>0.02</v>
       </c>
-      <c r="AT19" s="2">
+      <c r="AT19">
         <v>0.1</v>
       </c>
-      <c r="AU19" s="2">
+      <c r="AU19">
         <v>0.18</v>
       </c>
-      <c r="AV19" s="2">
+      <c r="AV19">
         <v>0.17</v>
       </c>
-      <c r="AW19" s="2">
+      <c r="AW19">
         <v>0.12</v>
       </c>
-      <c r="AX19" s="2">
+      <c r="AX19">
         <v>0.12</v>
       </c>
-      <c r="AY19" s="2">
+      <c r="AY19">
         <v>0.05</v>
       </c>
     </row>
@@ -57828,151 +57827,151 @@
       <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>0.5</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>0.1</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>0.03</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>0.17</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
         <v>0.04</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
         <v>0.04</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20">
         <v>0.21</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20">
         <v>0.09</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20">
         <v>0.06</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20">
         <v>0.16</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20">
         <v>0.06</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20">
         <v>0.13</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20">
         <v>0.09</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20">
         <v>0.06</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20">
         <v>0.03</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20">
         <v>0.05</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <v>0.08</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20">
         <v>0.03</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y20">
         <v>0.04</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z20">
         <v>0.09</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA20">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AB20">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AC20">
         <v>0.18</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20">
         <v>0.03</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AE20">
         <v>0.09</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AF20">
         <v>0.06</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AG20">
         <v>0.04</v>
       </c>
-      <c r="AH20" s="2">
+      <c r="AH20">
         <v>0.11</v>
       </c>
-      <c r="AI20" s="2">
+      <c r="AI20">
         <v>0.11</v>
       </c>
-      <c r="AJ20" s="2">
+      <c r="AJ20">
         <v>0.34</v>
       </c>
-      <c r="AK20" s="2">
+      <c r="AK20">
         <v>0.16</v>
       </c>
-      <c r="AL20" s="2">
+      <c r="AL20">
         <v>0.11</v>
       </c>
-      <c r="AM20" s="2">
+      <c r="AM20">
         <v>0.1</v>
       </c>
-      <c r="AN20" s="2">
+      <c r="AN20">
         <v>0.03</v>
       </c>
-      <c r="AO20" s="2">
+      <c r="AO20">
         <v>0.3</v>
       </c>
-      <c r="AP20" s="2">
+      <c r="AP20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AQ20" s="2">
+      <c r="AQ20">
         <v>0.15</v>
       </c>
-      <c r="AR20" s="2">
+      <c r="AR20">
         <v>0.05</v>
       </c>
-      <c r="AS20" s="2">
+      <c r="AS20">
         <v>0.04</v>
       </c>
-      <c r="AT20" s="2">
+      <c r="AT20">
         <v>0.08</v>
       </c>
-      <c r="AU20" s="2">
+      <c r="AU20">
         <v>0.1</v>
       </c>
-      <c r="AV20" s="2">
+      <c r="AV20">
         <v>0.13</v>
       </c>
-      <c r="AW20" s="2">
+      <c r="AW20">
         <v>0.05</v>
       </c>
-      <c r="AX20" s="2">
+      <c r="AX20">
         <v>0.19</v>
       </c>
-      <c r="AY20" s="2">
+      <c r="AY20">
         <v>0.15</v>
       </c>
     </row>
@@ -57983,151 +57982,151 @@
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>0.25</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>0.16</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>0.03</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>0.05</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <v>0.03</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
         <v>0.1</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21">
         <v>0.03</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21">
         <v>0.05</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21">
         <v>0.1</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21">
         <v>0.09</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21">
         <v>0.24</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21">
         <v>0.19</v>
       </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>0.13</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21">
         <v>0.27</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21">
         <v>0.11</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21">
         <v>0.12</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21">
         <v>0.21</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21">
         <v>0.15</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V21">
         <v>0.08</v>
       </c>
-      <c r="W21" s="2">
+      <c r="W21">
         <v>0.16</v>
       </c>
-      <c r="X21" s="2">
+      <c r="X21">
         <v>0.24</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="Y21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="Z21">
         <v>0.1</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AA21">
         <v>0.11</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AB21">
         <v>0.06</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AC21">
         <v>0.16</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21">
         <v>0.04</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AE21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AF21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="2">
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>0.1</v>
       </c>
-      <c r="AH21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="2">
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ21" s="2">
+      <c r="AJ21">
         <v>0.13</v>
       </c>
-      <c r="AK21" s="2">
+      <c r="AK21">
         <v>0.19</v>
       </c>
-      <c r="AL21" s="2">
+      <c r="AL21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AM21" s="2">
+      <c r="AM21">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AN21" s="2">
+      <c r="AN21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO21" s="2">
+      <c r="AO21">
         <v>0.15</v>
       </c>
-      <c r="AP21" s="2">
+      <c r="AP21">
         <v>0.18</v>
       </c>
-      <c r="AQ21" s="2">
+      <c r="AQ21">
         <v>0.19</v>
       </c>
-      <c r="AR21" s="2">
+      <c r="AR21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AS21" s="2">
+      <c r="AS21">
         <v>0.1</v>
       </c>
-      <c r="AT21" s="2">
+      <c r="AT21">
         <v>0.2</v>
       </c>
-      <c r="AU21" s="2">
+      <c r="AU21">
         <v>0.22</v>
       </c>
-      <c r="AV21" s="2">
+      <c r="AV21">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AW21" s="2">
+      <c r="AW21">
         <v>0.08</v>
       </c>
-      <c r="AX21" s="2">
+      <c r="AX21">
         <v>0.15</v>
       </c>
-      <c r="AY21" s="2">
+      <c r="AY21">
         <v>0</v>
       </c>
     </row>
@@ -58138,151 +58137,151 @@
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>0.04</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>0.11</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>0.12</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <v>0.1</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22">
         <v>0.11</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22">
         <v>0.05</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22">
         <v>0.08</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22">
         <v>0.06</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22">
         <v>0.08</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22">
         <v>0.1</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22">
         <v>0.08</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22">
         <v>0.1</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22">
         <v>0.08</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22">
         <v>0.04</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22">
         <v>0.08</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22">
         <v>0.04</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W22">
         <v>0.08</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y22">
         <v>0.09</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="Z22">
         <v>0.11</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AA22">
         <v>0.05</v>
       </c>
-      <c r="AB22" s="2">
+      <c r="AB22">
         <v>0.06</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AC22">
         <v>0.18</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22">
         <v>0.03</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AE22">
         <v>0.04</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AF22">
         <v>0.04</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AG22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AH22">
         <v>0.03</v>
       </c>
-      <c r="AI22" s="2">
+      <c r="AI22">
         <v>0.06</v>
       </c>
-      <c r="AJ22" s="2">
+      <c r="AJ22">
         <v>0.19</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AK22">
         <v>0.1</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AL22">
         <v>0.05</v>
       </c>
-      <c r="AM22" s="2">
+      <c r="AM22">
         <v>0.13</v>
       </c>
-      <c r="AN22" s="2">
+      <c r="AN22">
         <v>0.05</v>
       </c>
-      <c r="AO22" s="2">
+      <c r="AO22">
         <v>0.1</v>
       </c>
-      <c r="AP22" s="2">
+      <c r="AP22">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AQ22" s="2">
+      <c r="AQ22">
         <v>0.1</v>
       </c>
-      <c r="AR22" s="2">
+      <c r="AR22">
         <v>0.1</v>
       </c>
-      <c r="AS22" s="2">
+      <c r="AS22">
         <v>0.04</v>
       </c>
-      <c r="AT22" s="2">
+      <c r="AT22">
         <v>0.11</v>
       </c>
-      <c r="AU22" s="2">
+      <c r="AU22">
         <v>0.11</v>
       </c>
-      <c r="AV22" s="2">
+      <c r="AV22">
         <v>0.25</v>
       </c>
-      <c r="AW22" s="2">
+      <c r="AW22">
         <v>0.1</v>
       </c>
-      <c r="AX22" s="2">
+      <c r="AX22">
         <v>0.11</v>
       </c>
-      <c r="AY22" s="2">
+      <c r="AY22">
         <v>0.08</v>
       </c>
     </row>
@@ -58293,151 +58292,151 @@
       <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="2">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
         <v>1</v>
       </c>
-      <c r="AP23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="2">
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
         <v>0</v>
       </c>
     </row>
@@ -58448,151 +58447,151 @@
       <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>0.24</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>0.12</v>
       </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>0.03</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24">
         <v>0.11</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24">
         <v>0.12</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24">
         <v>0.03</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24">
         <v>0.06</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24">
         <v>0.06</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24">
         <v>0.16</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24">
         <v>0.05</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24">
         <v>0.05</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24">
         <v>0.15</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24">
         <v>0.21</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24">
         <v>0.1</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U24">
         <v>0.14000000000000001</v>
       </c>
-      <c r="V24" s="2">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2">
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>0.12</v>
       </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2">
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>0.09</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="Z24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AA24">
         <v>0.12</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AB24">
         <v>0.09</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AC24">
         <v>0.25</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24">
         <v>0.02</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AE24">
         <v>0.16</v>
       </c>
-      <c r="AF24" s="2">
+      <c r="AF24">
         <v>0.04</v>
       </c>
-      <c r="AG24" s="2">
+      <c r="AG24">
         <v>0.03</v>
       </c>
-      <c r="AH24" s="2">
+      <c r="AH24">
         <v>0.16</v>
       </c>
-      <c r="AI24" s="2">
+      <c r="AI24">
         <v>0.1</v>
       </c>
-      <c r="AJ24" s="2">
+      <c r="AJ24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AK24" s="2">
+      <c r="AK24">
         <v>0.17</v>
       </c>
-      <c r="AL24" s="2">
+      <c r="AL24">
         <v>0.18</v>
       </c>
-      <c r="AM24" s="2">
+      <c r="AM24">
         <v>0.22</v>
       </c>
-      <c r="AN24" s="2">
+      <c r="AN24">
         <v>0.1</v>
       </c>
-      <c r="AO24" s="2">
+      <c r="AO24">
         <v>0.2</v>
       </c>
-      <c r="AP24" s="2">
+      <c r="AP24">
         <v>0.37</v>
       </c>
-      <c r="AQ24" s="2">
+      <c r="AQ24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AR24" s="2">
+      <c r="AR24">
         <v>0.16</v>
       </c>
-      <c r="AS24" s="2">
+      <c r="AS24">
         <v>0.06</v>
       </c>
-      <c r="AT24" s="2">
+      <c r="AT24">
         <v>0.19</v>
       </c>
-      <c r="AU24" s="2">
+      <c r="AU24">
         <v>0.2</v>
       </c>
-      <c r="AV24" s="2">
+      <c r="AV24">
         <v>0.1</v>
       </c>
-      <c r="AW24" s="2">
+      <c r="AW24">
         <v>0.09</v>
       </c>
-      <c r="AX24" s="2">
+      <c r="AX24">
         <v>0.09</v>
       </c>
-      <c r="AY24" s="2">
+      <c r="AY24">
         <v>0</v>
       </c>
     </row>
@@ -58603,151 +58602,151 @@
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>0.2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>0.17</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>0.12</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>0.19</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>0.04</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25">
         <v>0.06</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25">
         <v>0.13</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25">
         <v>0.2</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25">
         <v>0.12</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25">
         <v>0.11</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25">
         <v>0.21</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25">
         <v>0.25</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25">
         <v>0.19</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25">
         <v>0.17</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25">
         <v>0.03</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25">
         <v>0.12</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25">
         <v>0.1</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25">
         <v>0.1</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25">
         <v>0.1</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25">
         <v>0.1</v>
       </c>
-      <c r="W25" s="2">
+      <c r="W25">
         <v>0.06</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X25">
         <v>0.15</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="Y25">
         <v>0.05</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="Z25">
         <v>0.17</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AA25">
         <v>0.15</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AB25">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AC25">
         <v>0.3</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25">
         <v>0.08</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AE25">
         <v>0.1</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AF25">
         <v>0.06</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AG25">
         <v>0.05</v>
       </c>
-      <c r="AH25" s="2">
+      <c r="AH25">
         <v>0.21</v>
       </c>
-      <c r="AI25" s="2">
+      <c r="AI25">
         <v>0.1</v>
       </c>
-      <c r="AJ25" s="2">
+      <c r="AJ25">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AK25" s="2">
+      <c r="AK25">
         <v>0.17</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AL25">
         <v>0.16</v>
       </c>
-      <c r="AM25" s="2">
+      <c r="AM25">
         <v>0.21</v>
       </c>
-      <c r="AN25" s="2">
+      <c r="AN25">
         <v>0.13</v>
       </c>
-      <c r="AO25" s="2">
+      <c r="AO25">
         <v>0.3</v>
       </c>
-      <c r="AP25" s="2">
+      <c r="AP25">
         <v>0.18</v>
       </c>
-      <c r="AQ25" s="2">
+      <c r="AQ25">
         <v>0.19</v>
       </c>
-      <c r="AR25" s="2">
+      <c r="AR25">
         <v>0.17</v>
       </c>
-      <c r="AS25" s="2">
+      <c r="AS25">
         <v>0.11</v>
       </c>
-      <c r="AT25" s="2">
+      <c r="AT25">
         <v>0.12</v>
       </c>
-      <c r="AU25" s="2">
+      <c r="AU25">
         <v>0.1</v>
       </c>
-      <c r="AV25" s="2">
+      <c r="AV25">
         <v>0.22</v>
       </c>
-      <c r="AW25" s="2">
+      <c r="AW25">
         <v>0.08</v>
       </c>
-      <c r="AX25" s="2">
+      <c r="AX25">
         <v>0.18</v>
       </c>
-      <c r="AY25" s="2">
+      <c r="AY25">
         <v>0.16</v>
       </c>
     </row>
@@ -58758,151 +58757,151 @@
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>0.25</v>
       </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>0.04</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26">
         <v>0.08</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26">
         <v>0.23</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26">
         <v>0.13</v>
       </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>0.1</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26">
         <v>0.2</v>
       </c>
-      <c r="N26" s="2">
-        <v>0</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26">
         <v>0.1</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26">
         <v>0.15</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26">
         <v>0.06</v>
       </c>
-      <c r="T26" s="2">
-        <v>0</v>
-      </c>
-      <c r="U26" s="2">
-        <v>0</v>
-      </c>
-      <c r="V26" s="2">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2">
-        <v>0</v>
-      </c>
-      <c r="X26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="2">
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <v>0.21</v>
       </c>
-      <c r="Z26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="2">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
         <v>0.22</v>
       </c>
-      <c r="AB26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="2">
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
         <v>0.17</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26">
         <v>0.06</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AE26">
         <v>0.1</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AF26">
         <v>0.2</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AG26">
         <v>0.09</v>
       </c>
-      <c r="AH26" s="2">
+      <c r="AH26">
         <v>0.09</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AI26">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AJ26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="2">
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
         <v>0.33</v>
       </c>
-      <c r="AM26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="2">
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
         <v>0.18</v>
       </c>
-      <c r="AP26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="2">
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
         <v>0.15</v>
       </c>
-      <c r="AS26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="2">
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
         <v>0.08</v>
       </c>
-      <c r="AU26" s="2">
+      <c r="AU26">
         <v>0.18</v>
       </c>
-      <c r="AV26" s="2">
+      <c r="AV26">
         <v>0.09</v>
       </c>
-      <c r="AW26" s="2">
+      <c r="AW26">
         <v>0.09</v>
       </c>
-      <c r="AX26" s="2">
+      <c r="AX26">
         <v>0.06</v>
       </c>
-      <c r="AY26" s="2">
+      <c r="AY26">
         <v>0.1</v>
       </c>
     </row>
@@ -58913,151 +58912,151 @@
       <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>0.21</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>0.16</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>0.12</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>0.21</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27">
         <v>0.08</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27">
         <v>0.1</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27">
         <v>0.18</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27">
         <v>0.17</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27">
         <v>0.15</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27">
         <v>0.2</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27">
         <v>0.19</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27">
         <v>0.08</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27">
         <v>0.21</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27">
         <v>0.17</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27">
         <v>0.2</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27">
         <v>0.08</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27">
         <v>0.12</v>
       </c>
-      <c r="U27" s="2">
+      <c r="U27">
         <v>0.1</v>
       </c>
-      <c r="V27" s="2">
+      <c r="V27">
         <v>0.08</v>
       </c>
-      <c r="W27" s="2">
+      <c r="W27">
         <v>0.08</v>
       </c>
-      <c r="X27" s="2">
+      <c r="X27">
         <v>0.06</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="Y27">
         <v>0.08</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="Z27">
         <v>0.11</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AA27">
         <v>0.11</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AB27">
         <v>0.08</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AC27">
         <v>0.24</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27">
         <v>0.15</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AE27">
         <v>0.11</v>
       </c>
-      <c r="AF27" s="2">
+      <c r="AF27">
         <v>0.06</v>
       </c>
-      <c r="AG27" s="2">
+      <c r="AG27">
         <v>0.15</v>
       </c>
-      <c r="AH27" s="2">
+      <c r="AH27">
         <v>0.1</v>
       </c>
-      <c r="AI27" s="2">
+      <c r="AI27">
         <v>0.15</v>
       </c>
-      <c r="AJ27" s="2">
+      <c r="AJ27">
         <v>0.33</v>
       </c>
-      <c r="AK27" s="2">
+      <c r="AK27">
         <v>0.15</v>
       </c>
-      <c r="AL27" s="2">
+      <c r="AL27">
         <v>0.13</v>
       </c>
-      <c r="AM27" s="2">
+      <c r="AM27">
         <v>0.22</v>
       </c>
-      <c r="AN27" s="2">
+      <c r="AN27">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AO27" s="2">
+      <c r="AO27">
         <v>0.23</v>
       </c>
-      <c r="AP27" s="2">
+      <c r="AP27">
         <v>0.25</v>
       </c>
-      <c r="AQ27" s="2">
+      <c r="AQ27">
         <v>0.19</v>
       </c>
-      <c r="AR27" s="2">
+      <c r="AR27">
         <v>0.12</v>
       </c>
-      <c r="AS27" s="2">
+      <c r="AS27">
         <v>0.1</v>
       </c>
-      <c r="AT27" s="2">
+      <c r="AT27">
         <v>0.09</v>
       </c>
-      <c r="AU27" s="2">
+      <c r="AU27">
         <v>0.11</v>
       </c>
-      <c r="AV27" s="2">
+      <c r="AV27">
         <v>0.27</v>
       </c>
-      <c r="AW27" s="2">
+      <c r="AW27">
         <v>0.13</v>
       </c>
-      <c r="AX27" s="2">
+      <c r="AX27">
         <v>0.17</v>
       </c>
-      <c r="AY27" s="2">
+      <c r="AY27">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -59068,151 +59067,151 @@
       <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>0.5</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>0.15</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>0.12</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <v>0.11</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <v>0.09</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28">
         <v>0.11</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>0.05</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28">
         <v>0.03</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28">
         <v>0.2</v>
       </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
         <v>0.04</v>
       </c>
-      <c r="Q28" s="2">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <v>0.15</v>
       </c>
-      <c r="S28" s="2">
-        <v>0</v>
-      </c>
-      <c r="T28" s="2">
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <v>0.06</v>
       </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2">
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
         <v>0.04</v>
       </c>
-      <c r="W28" s="2">
+      <c r="W28">
         <v>0.06</v>
       </c>
-      <c r="X28" s="2">
+      <c r="X28">
         <v>0.11</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="Y28">
         <v>0.04</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="Z28">
         <v>0.03</v>
       </c>
-      <c r="AA28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="2">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
         <v>0.18</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AC28">
         <v>0.27</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AE28">
         <v>0.08</v>
       </c>
-      <c r="AF28" s="2">
+      <c r="AF28">
         <v>0.06</v>
       </c>
-      <c r="AG28" s="2">
+      <c r="AG28">
         <v>0.05</v>
       </c>
-      <c r="AH28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="2">
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
         <v>0.19</v>
       </c>
-      <c r="AJ28" s="2">
+      <c r="AJ28">
         <v>0.09</v>
       </c>
-      <c r="AK28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="2">
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
         <v>0.19</v>
       </c>
-      <c r="AN28" s="2">
+      <c r="AN28">
         <v>0.03</v>
       </c>
-      <c r="AO28" s="2">
+      <c r="AO28">
         <v>0.12</v>
       </c>
-      <c r="AP28" s="2">
+      <c r="AP28">
         <v>0.1</v>
       </c>
-      <c r="AQ28" s="2">
+      <c r="AQ28">
         <v>0.06</v>
       </c>
-      <c r="AR28" s="2">
+      <c r="AR28">
         <v>0.15</v>
       </c>
-      <c r="AS28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="2">
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
         <v>0.11</v>
       </c>
-      <c r="AU28" s="2">
+      <c r="AU28">
         <v>0.1</v>
       </c>
-      <c r="AV28" s="2">
+      <c r="AV28">
         <v>0.19</v>
       </c>
-      <c r="AW28" s="2">
+      <c r="AW28">
         <v>0.06</v>
       </c>
-      <c r="AX28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="2">
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -59223,151 +59222,151 @@
       <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>0.12</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>0.17</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>0.13</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
         <v>0.05</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29">
         <v>0.05</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29">
         <v>0.12</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29">
         <v>0.13</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29">
         <v>0.23</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29">
         <v>0.05</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29">
         <v>0.09</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29">
         <v>0.04</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29">
         <v>0.04</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29">
         <v>0.1</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29">
         <v>0.11</v>
       </c>
-      <c r="U29" s="2">
-        <v>0</v>
-      </c>
-      <c r="V29" s="2">
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W29" s="2">
+      <c r="W29">
         <v>0.05</v>
       </c>
-      <c r="X29" s="2">
+      <c r="X29">
         <v>0.04</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="Y29">
         <v>0.04</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="Z29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AA29">
         <v>0.04</v>
       </c>
-      <c r="AB29" s="2">
+      <c r="AB29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AC29">
         <v>0.2</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29">
         <v>0.03</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AE29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AF29" s="2">
+      <c r="AF29">
         <v>0.08</v>
       </c>
-      <c r="AG29" s="2">
+      <c r="AG29">
         <v>0.05</v>
       </c>
-      <c r="AH29" s="2">
+      <c r="AH29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI29" s="2">
+      <c r="AI29">
         <v>0.15</v>
       </c>
-      <c r="AJ29" s="2">
+      <c r="AJ29">
         <v>0.43</v>
       </c>
-      <c r="AK29" s="2">
+      <c r="AK29">
         <v>0.18</v>
       </c>
-      <c r="AL29" s="2">
+      <c r="AL29">
         <v>0.1</v>
       </c>
-      <c r="AM29" s="2">
+      <c r="AM29">
         <v>0.22</v>
       </c>
-      <c r="AN29" s="2">
+      <c r="AN29">
         <v>0.1</v>
       </c>
-      <c r="AO29" s="2">
+      <c r="AO29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AP29" s="2">
+      <c r="AP29">
         <v>0.18</v>
       </c>
-      <c r="AQ29" s="2">
+      <c r="AQ29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AR29" s="2">
+      <c r="AR29">
         <v>0.11</v>
       </c>
-      <c r="AS29" s="2">
+      <c r="AS29">
         <v>0.08</v>
       </c>
-      <c r="AT29" s="2">
+      <c r="AT29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AU29" s="2">
+      <c r="AU29">
         <v>0.16</v>
       </c>
-      <c r="AV29" s="2">
+      <c r="AV29">
         <v>0.15</v>
       </c>
-      <c r="AW29" s="2">
+      <c r="AW29">
         <v>0.1</v>
       </c>
-      <c r="AX29" s="2">
+      <c r="AX29">
         <v>0.08</v>
       </c>
-      <c r="AY29" s="2">
+      <c r="AY29">
         <v>0.08</v>
       </c>
     </row>
@@ -59378,151 +59377,151 @@
       <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>0.17</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>0.17</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30">
         <v>0.1</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30">
         <v>0.11</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30">
         <v>0.11</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30">
         <v>0.17</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30">
         <v>0.1</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30">
         <v>0.13</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30">
         <v>0.19</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30">
         <v>0.15</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30">
         <v>0.13</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30">
         <v>0.12</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30">
         <v>0.16</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30">
         <v>0.13</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T30">
         <v>0.1</v>
       </c>
-      <c r="U30" s="2">
+      <c r="U30">
         <v>0.16</v>
       </c>
-      <c r="V30" s="2">
+      <c r="V30">
         <v>0.12</v>
       </c>
-      <c r="W30" s="2">
+      <c r="W30">
         <v>0.12</v>
       </c>
-      <c r="X30" s="2">
+      <c r="X30">
         <v>0.16</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="Y30">
         <v>0.12</v>
       </c>
-      <c r="Z30" s="2">
+      <c r="Z30">
         <v>0.13</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AA30">
         <v>0.13</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AB30">
         <v>0.13</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AC30">
         <v>0.23</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AE30" s="2">
+      <c r="AE30">
         <v>0.13</v>
       </c>
-      <c r="AF30" s="2">
+      <c r="AF30">
         <v>0.1</v>
       </c>
-      <c r="AG30" s="2">
+      <c r="AG30">
         <v>0.19</v>
       </c>
-      <c r="AH30" s="2">
+      <c r="AH30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AI30" s="2">
+      <c r="AI30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AJ30" s="2">
+      <c r="AJ30">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AK30" s="2">
+      <c r="AK30">
         <v>0.17</v>
       </c>
-      <c r="AL30" s="2">
+      <c r="AL30">
         <v>0.13</v>
       </c>
-      <c r="AM30" s="2">
+      <c r="AM30">
         <v>0.23</v>
       </c>
-      <c r="AN30" s="2">
+      <c r="AN30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AO30" s="2">
+      <c r="AO30">
         <v>0.37</v>
       </c>
-      <c r="AP30" s="2">
+      <c r="AP30">
         <v>0.32</v>
       </c>
-      <c r="AQ30" s="2">
+      <c r="AQ30">
         <v>0.25</v>
       </c>
-      <c r="AR30" s="2">
+      <c r="AR30">
         <v>0.21</v>
       </c>
-      <c r="AS30" s="2">
+      <c r="AS30">
         <v>0.16</v>
       </c>
-      <c r="AT30" s="2">
+      <c r="AT30">
         <v>0.17</v>
       </c>
-      <c r="AU30" s="2">
+      <c r="AU30">
         <v>0.19</v>
       </c>
-      <c r="AV30" s="2">
+      <c r="AV30">
         <v>0.19</v>
       </c>
-      <c r="AW30" s="2">
+      <c r="AW30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AX30" s="2">
+      <c r="AX30">
         <v>0.15</v>
       </c>
-      <c r="AY30" s="2">
+      <c r="AY30">
         <v>0.17</v>
       </c>
     </row>
@@ -63436,7 +63435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45D4D83-B739-4CDA-B416-1DF293C62C08}">
   <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
